--- a/stock_predictor_ai/data/company_sentiment_ready/AME_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/AME_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10310"/>
+  <dimension ref="A1:B10370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82921,6 +82921,486 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10311">
+      <c r="A10311" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B10311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10312">
+      <c r="A10312" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B10312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10313">
+      <c r="A10313" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B10313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10314">
+      <c r="A10314" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B10314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10315">
+      <c r="A10315" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B10315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10316">
+      <c r="A10316" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B10316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10317">
+      <c r="A10317" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B10317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10318">
+      <c r="A10318" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B10318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10319">
+      <c r="A10319" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B10319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10320">
+      <c r="A10320" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B10320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10321">
+      <c r="A10321" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B10321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10322">
+      <c r="A10322" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B10322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10323">
+      <c r="A10323" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B10323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10324">
+      <c r="A10324" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B10324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10325">
+      <c r="A10325" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B10325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10326">
+      <c r="A10326" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B10326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10327">
+      <c r="A10327" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B10327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10328">
+      <c r="A10328" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B10328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10329">
+      <c r="A10329" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B10329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10330">
+      <c r="A10330" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B10330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10331">
+      <c r="A10331" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B10331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10332">
+      <c r="A10332" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B10332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10333">
+      <c r="A10333" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B10333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10334">
+      <c r="A10334" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B10334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10335">
+      <c r="A10335" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B10335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10336">
+      <c r="A10336" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B10336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10337">
+      <c r="A10337" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B10337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10338">
+      <c r="A10338" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B10338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10339">
+      <c r="A10339" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B10339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10340">
+      <c r="A10340" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B10340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10341">
+      <c r="A10341" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B10341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10342">
+      <c r="A10342" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B10342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10343">
+      <c r="A10343" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B10343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10344">
+      <c r="A10344" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B10344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10345">
+      <c r="A10345" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B10345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10346">
+      <c r="A10346" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B10346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10347">
+      <c r="A10347" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B10347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10348">
+      <c r="A10348" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B10348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10349">
+      <c r="A10349" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B10349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10350">
+      <c r="A10350" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B10350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10351">
+      <c r="A10351" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B10351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10352">
+      <c r="A10352" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B10352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10353">
+      <c r="A10353" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B10353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10354">
+      <c r="A10354" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B10354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10355">
+      <c r="A10355" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B10355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10356">
+      <c r="A10356" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B10356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10357">
+      <c r="A10357" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B10357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10358">
+      <c r="A10358" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B10358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10359">
+      <c r="A10359" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B10359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10360">
+      <c r="A10360" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B10360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10361">
+      <c r="A10361" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B10361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10362">
+      <c r="A10362" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B10362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10363">
+      <c r="A10363" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B10363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10364">
+      <c r="A10364" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B10364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10365">
+      <c r="A10365" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B10365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10366">
+      <c r="A10366" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B10366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10367">
+      <c r="A10367" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B10367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10368">
+      <c r="A10368" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B10368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10369">
+      <c r="A10369" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B10369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10370">
+      <c r="A10370" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B10370" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/company_sentiment_ready/AME_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/AME_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10370"/>
+  <dimension ref="A1:B10371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83401,6 +83401,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10371">
+      <c r="A10371" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B10371" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
